--- a/db/roles_seeds.xlsx
+++ b/db/roles_seeds.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -23,40 +23,154 @@
     <t>name</t>
   </si>
   <si>
+    <t>Deloris </t>
+  </si>
+  <si>
+    <t>Sue</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
     <t>Vince</t>
   </si>
   <si>
-    <t>Deloris</t>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Bronco</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Salvatore</t>
+  </si>
+  <si>
+    <t>Mauro</t>
   </si>
   <si>
     <t>Ansager</t>
   </si>
   <si>
-    <t>Groupier</t>
-  </si>
-  <si>
-    <t>Mrs Watson</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
+    <t>Souther</t>
+  </si>
+  <si>
+    <t>Gehilfe Souther</t>
+  </si>
+  <si>
+    <t>Polizei1</t>
+  </si>
+  <si>
+    <t>Priester</t>
+  </si>
+  <si>
+    <t>Ernie</t>
+  </si>
+  <si>
+    <t>Papst</t>
+  </si>
+  <si>
+    <t>Äbtissin</t>
+  </si>
+  <si>
+    <t>Assistentin</t>
   </si>
   <si>
     <t>Crisp</t>
   </si>
   <si>
-    <t>Gina</t>
-  </si>
-  <si>
-    <t>Bronco</t>
-  </si>
-  <si>
-    <t>Salvatore</t>
+    <t>Mrs. Watson</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Reporter</t>
+  </si>
+  <si>
+    <t>Gipser</t>
+  </si>
+  <si>
+    <t>Tänzer</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Nonnen-Lehrerin</t>
+  </si>
+  <si>
+    <t>Mary Lazarus</t>
+  </si>
+  <si>
+    <t>Mary Deaf</t>
+  </si>
+  <si>
+    <t>Mary Jane</t>
+  </si>
+  <si>
+    <t>Mary Lisa</t>
+  </si>
+  <si>
+    <t>Mary Kate</t>
+  </si>
+  <si>
+    <t>Mary Alice</t>
+  </si>
+  <si>
+    <t>Mary Eva</t>
+  </si>
+  <si>
+    <t>Mary Christine</t>
+  </si>
+  <si>
+    <t>Mary Liz</t>
+  </si>
+  <si>
+    <t>Mary Julia</t>
+  </si>
+  <si>
+    <t>Mary Sarah</t>
+  </si>
+  <si>
+    <t>Freundin 1</t>
+  </si>
+  <si>
+    <t>Freundin 2</t>
+  </si>
+  <si>
+    <t>Freundin 3</t>
   </si>
 </sst>
 </file>
@@ -132,12 +246,16 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -158,10 +276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+      <selection activeCell="E62" activeCellId="0" pane="topLeft" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -182,7 +300,7 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -190,15 +308,15 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -206,39 +324,39 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -246,7 +364,7 @@
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -254,7 +372,7 @@
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -262,7 +380,7 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -270,8 +388,328 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="24">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
